--- a/Project_Management/Sprint4/Scrum Board.xlsx
+++ b/Project_Management/Sprint4/Scrum Board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\Sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFC4DF-BC83-4AF4-9C3B-16C751F5DFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CADF8B-0442-4CAB-BDC8-C9B633C0356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1870" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Backlog:</t>
   </si>
@@ -59,49 +59,34 @@
     <t>Compreender o código do projeto</t>
   </si>
   <si>
-    <t>Reunir o grupo para organizar a entrega da 2ª fase do projeto</t>
-  </si>
-  <si>
-    <t>Fazer os Use Case Diagrams</t>
-  </si>
-  <si>
-    <t>Obter as Code Base Metrics</t>
-  </si>
-  <si>
     <t>Jogar FreeCol</t>
   </si>
   <si>
-    <t>Organizar o repositório no Github</t>
-  </si>
-  <si>
-    <t>Jogar FreeCol (José Pereira)</t>
-  </si>
-  <si>
-    <t>Compreender o código do projeto (José Pereira)</t>
-  </si>
-  <si>
-    <t>Organizar o repositório no Github (José Pereira)</t>
-  </si>
-  <si>
-    <t>Fazer os Use Case Diagrams (Todos têm de fazer)</t>
-  </si>
-  <si>
-    <t>Reunir o grupo para organizar a entrega da 2ª fase do projeto (José Pereira)</t>
-  </si>
-  <si>
-    <t>Obter as Code Base Metrics (José Pereira)</t>
-  </si>
-  <si>
-    <t>Identificar os Code Smells (José Pereira)</t>
-  </si>
-  <si>
-    <t>Identificar 3 GOF Design Patterns</t>
-  </si>
-  <si>
-    <t>Identificar 3 Code Smells</t>
-  </si>
-  <si>
-    <t>Identificar 3 Design Patterns (Todos têm de fazer)</t>
+    <t>Trabalhar nos User Stories</t>
+  </si>
+  <si>
+    <t>Reunir o grupo para reuniao semanal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogar FreeCol </t>
+  </si>
+  <si>
+    <t>Analisar o código do projeto</t>
+  </si>
+  <si>
+    <t>User stories algoritmos em processo</t>
+  </si>
+  <si>
+    <t>Aperfeiçoar User Stories</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Vento</t>
+  </si>
+  <si>
+    <t>Turno automatico</t>
   </si>
 </sst>
 </file>
@@ -491,23 +476,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G11"/>
+  <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="67.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" customWidth="1"/>
+    <col min="5" max="5" width="67.453125" customWidth="1"/>
+    <col min="6" max="6" width="37.26953125" customWidth="1"/>
+    <col min="7" max="7" width="51.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,68 +512,54 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
